--- a/uploads/importexcel/penerimaan.xlsx
+++ b/uploads/importexcel/penerimaan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toni\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>toni</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>tglpenerimaan</t>
   </si>
@@ -152,27 +157,15 @@
     <t>totalharga</t>
   </si>
   <si>
-    <t>1.02.001.001</t>
-  </si>
-  <si>
     <t>Pembelian</t>
   </si>
   <si>
-    <t>2207BB0001</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>1.02.001.002</t>
-  </si>
-  <si>
     <t>Pembelian barang dari PT. Makmur Jaya Sentosa</t>
   </si>
   <si>
-    <t>2207MB0001</t>
-  </si>
-  <si>
     <t>Barang Masuk</t>
   </si>
   <si>
@@ -180,16 +173,31 @@
   </si>
   <si>
     <t>Barang masuk dari gudang</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>2022-09-03</t>
+  </si>
+  <si>
+    <t>2209GB0001</t>
+  </si>
+  <si>
+    <t>13.0100.0000</t>
+  </si>
+  <si>
+    <t>13.0150.0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,16 +253,20 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -301,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,9 +345,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +380,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,17 +556,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="32" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
@@ -561,11 +575,11 @@
     <col min="8" max="9" width="21.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -590,24 +604,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>44743</v>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5">
         <v>30</v>
@@ -620,9 +634,9 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5">
         <v>15</v>
@@ -635,24 +649,24 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>44744</v>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5">
         <v>20</v>
@@ -665,24 +679,24 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>44745</v>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5">
         <v>50</v>
@@ -703,24 +717,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
